--- a/Data Input Sheets/Dex Number Official.xlsx
+++ b/Data Input Sheets/Dex Number Official.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="7E604B496C308CE8823CDA5143699B10E88E0905" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{7C7AD20A-25A2-4123-8D70-A0DCD69B1524}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="7E604B496C308CE8823CDA5143699B10E88E0905" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{07A4C5DE-F329-40D2-B1F3-B923AB14FFA2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{EC03435B-54B9-4B37-A78F-AEA99083F03F}"/>
   </bookViews>
@@ -7198,8 +7198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB9374-D0D2-4E91-A7A9-69889FA384C1}">
   <dimension ref="A1:K1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7395,6 +7395,9 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -7403,6 +7406,9 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
+      <c r="D17">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -7411,6 +7417,9 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -7427,6 +7436,9 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
+      <c r="D20">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -7435,6 +7447,9 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -7443,6 +7458,9 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
+      <c r="D22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -7538,6 +7556,9 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
+      <c r="D32">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -7546,6 +7567,9 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
+      <c r="D33">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -7554,6 +7578,9 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
+      <c r="D34">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -7562,6 +7589,9 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
+      <c r="D35">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -7608,6 +7638,9 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
+      <c r="D40">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -7624,6 +7657,9 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
+      <c r="D42">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -7640,6 +7676,9 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
+      <c r="D44">
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -7648,6 +7687,9 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
+      <c r="D45">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -7656,6 +7698,9 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
+      <c r="D46">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -7664,6 +7709,9 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
+      <c r="D47">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -7672,16 +7720,22 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1189</v>
       </c>
@@ -7689,7 +7743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1190</v>
       </c>
@@ -7697,7 +7751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1191</v>
       </c>
@@ -7705,7 +7759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1192</v>
       </c>
@@ -7713,7 +7767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1193</v>
       </c>
@@ -7721,7 +7775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1194</v>
       </c>
@@ -7729,23 +7783,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1197</v>
       </c>
@@ -7753,7 +7813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1198</v>
       </c>
@@ -7761,31 +7821,40 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1200</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1202</v>
       </c>
@@ -7793,7 +7862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1203</v>
       </c>
@@ -7801,7 +7870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1204</v>
       </c>
@@ -7809,7 +7878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1205</v>
       </c>
@@ -7817,7 +7886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1206</v>
       </c>
@@ -7825,7 +7894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1207</v>
       </c>
@@ -7833,7 +7902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1208</v>
       </c>
@@ -7841,7 +7910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1209</v>
       </c>
@@ -7849,7 +7918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1210</v>
       </c>
@@ -7857,7 +7926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1211</v>
       </c>
@@ -7865,7 +7934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1212</v>
       </c>
@@ -7873,7 +7942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1213</v>
       </c>
@@ -7881,7 +7950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1214</v>
       </c>
@@ -7889,7 +7958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1215</v>
       </c>
@@ -7897,23 +7966,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1218</v>
       </c>
@@ -7921,7 +7996,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1219</v>
       </c>
@@ -7929,7 +8004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1220</v>
       </c>
@@ -7937,7 +8012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1221</v>
       </c>
@@ -7945,7 +8020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1222</v>
       </c>
@@ -7953,7 +8028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1223</v>
       </c>
@@ -7961,31 +8036,40 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="B85" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="B86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="B87" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1227</v>
       </c>
@@ -7993,7 +8077,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1228</v>
       </c>
@@ -8001,7 +8085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1229</v>
       </c>
@@ -8009,7 +8093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1230</v>
       </c>
@@ -8017,7 +8101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1231</v>
       </c>
@@ -8025,7 +8109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1232</v>
       </c>
@@ -8033,7 +8117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1233</v>
       </c>
@@ -8041,20 +8125,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
+      </c>
+      <c r="D96">
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,23 +8409,29 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B129" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="B130" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1270</v>
       </c>
@@ -8343,7 +8439,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1271</v>
       </c>
@@ -8351,7 +8447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1272</v>
       </c>
@@ -8359,7 +8455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1273</v>
       </c>
@@ -8367,7 +8463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1274</v>
       </c>
@@ -8375,7 +8471,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1275</v>
       </c>
@@ -8383,7 +8479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1276</v>
       </c>
@@ -8391,7 +8487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1277</v>
       </c>
@@ -8399,7 +8495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1278</v>
       </c>
@@ -8407,7 +8503,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1279</v>
       </c>
@@ -8415,7 +8511,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1280</v>
       </c>
@@ -8423,7 +8519,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1281</v>
       </c>
@@ -8431,7 +8527,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1282</v>
       </c>
@@ -8439,7 +8535,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1283</v>
       </c>
@@ -8447,7 +8543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1284</v>
       </c>
@@ -8455,7 +8551,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1285</v>
       </c>
@@ -8463,7 +8559,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1286</v>
       </c>
@@ -8471,7 +8567,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1287</v>
       </c>
@@ -8479,7 +8575,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1288</v>
       </c>
@@ -8487,7 +8583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1289</v>
       </c>
@@ -8495,7 +8591,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1290</v>
       </c>
@@ -8503,23 +8599,29 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="B152" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="B153" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1293</v>
       </c>
@@ -8527,7 +8629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1294</v>
       </c>
@@ -8535,7 +8637,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1295</v>
       </c>
@@ -8543,7 +8645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1296</v>
       </c>
@@ -8551,7 +8653,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1297</v>
       </c>
@@ -8559,7 +8661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1298</v>
       </c>
@@ -8567,7 +8669,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1299</v>
       </c>
@@ -8836,6 +8938,9 @@
       <c r="B192" t="s">
         <v>201</v>
       </c>
+      <c r="D192">
+        <v>72</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -9102,15 +9207,18 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="B225" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1365</v>
       </c>
@@ -9118,7 +9226,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1366</v>
       </c>
@@ -9126,7 +9234,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1367</v>
       </c>
@@ -9134,7 +9242,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1368</v>
       </c>
@@ -9142,7 +9250,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1369</v>
       </c>
@@ -9150,7 +9258,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1370</v>
       </c>
@@ -9158,7 +9266,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1371</v>
       </c>
@@ -9166,7 +9274,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1372</v>
       </c>
@@ -9174,15 +9282,18 @@
         <v>242</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="B234" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1374</v>
       </c>
@@ -9190,23 +9301,29 @@
         <v>244</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="B236" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="B237" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1377</v>
       </c>
@@ -9214,7 +9331,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1378</v>
       </c>
@@ -9222,7 +9339,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1379</v>
       </c>
@@ -9489,7 +9606,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1412</v>
       </c>
@@ -9497,7 +9614,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1413</v>
       </c>
@@ -9505,7 +9622,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1414</v>
       </c>
@@ -9513,7 +9630,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1415</v>
       </c>
@@ -9521,7 +9638,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1416</v>
       </c>
@@ -9529,7 +9646,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1417</v>
       </c>
@@ -9537,7 +9654,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1418</v>
       </c>
@@ -9545,7 +9662,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1419</v>
       </c>
@@ -9553,7 +9670,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1420</v>
       </c>
@@ -9561,7 +9678,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1421</v>
       </c>
@@ -9569,7 +9686,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1422</v>
       </c>
@@ -9577,23 +9694,29 @@
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="B284" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="B285" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1425</v>
       </c>
@@ -9601,7 +9724,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1426</v>
       </c>
@@ -9609,7 +9732,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1427</v>
       </c>
@@ -9745,7 +9868,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1444</v>
       </c>
@@ -9753,7 +9876,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1445</v>
       </c>
@@ -9761,7 +9884,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1446</v>
       </c>
@@ -9769,7 +9892,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1447</v>
       </c>
@@ -9777,7 +9900,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1448</v>
       </c>
@@ -9785,7 +9908,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1449</v>
       </c>
@@ -9793,7 +9916,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1450</v>
       </c>
@@ -9801,7 +9924,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1451</v>
       </c>
@@ -9809,7 +9932,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1452</v>
       </c>
@@ -9817,7 +9940,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1453</v>
       </c>
@@ -9825,7 +9948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1454</v>
       </c>
@@ -9833,7 +9956,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1455</v>
       </c>
@@ -9841,23 +9964,29 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="B317" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="B318" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1458</v>
       </c>
@@ -9865,7 +9994,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1459</v>
       </c>
@@ -10385,7 +10514,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>1524</v>
       </c>
@@ -10393,7 +10522,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>1525</v>
       </c>
@@ -10401,7 +10530,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>1526</v>
       </c>
@@ -10409,7 +10538,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1527</v>
       </c>
@@ -10417,7 +10546,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1528</v>
       </c>
@@ -10425,7 +10554,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1529</v>
       </c>
@@ -10433,7 +10562,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>1530</v>
       </c>
@@ -10441,7 +10570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>1531</v>
       </c>
@@ -10449,7 +10578,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1532</v>
       </c>
@@ -10457,7 +10586,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>1533</v>
       </c>
@@ -10465,15 +10594,18 @@
         <v>403</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="B395" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1535</v>
       </c>
@@ -10481,7 +10613,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1536</v>
       </c>
@@ -10489,7 +10621,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>1537</v>
       </c>
@@ -10497,7 +10629,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>1538</v>
       </c>
@@ -10505,7 +10637,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>1539</v>
       </c>
@@ -11537,31 +11669,40 @@
         <v>537</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1668</v>
       </c>
       <c r="B529" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D529">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1669</v>
       </c>
       <c r="B530" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D530">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1670</v>
       </c>
       <c r="B531" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D531">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1671</v>
       </c>
@@ -11569,7 +11710,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1672</v>
       </c>
@@ -11577,7 +11718,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1673</v>
       </c>
@@ -11585,7 +11726,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1674</v>
       </c>
@@ -11593,7 +11734,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1675</v>
       </c>
@@ -11601,7 +11742,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1676</v>
       </c>
@@ -11609,7 +11750,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1677</v>
       </c>
@@ -11617,7 +11758,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1678</v>
       </c>
@@ -11625,7 +11766,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1679</v>
       </c>
@@ -11633,7 +11774,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1680</v>
       </c>
@@ -11641,7 +11782,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1681</v>
       </c>
@@ -11649,7 +11790,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1682</v>
       </c>
@@ -11657,7 +11798,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1683</v>
       </c>
@@ -11921,7 +12062,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1716</v>
       </c>
@@ -11929,7 +12070,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1717</v>
       </c>
@@ -11937,7 +12078,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1718</v>
       </c>
@@ -11945,15 +12086,18 @@
         <v>588</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1719</v>
       </c>
       <c r="B580" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D580">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1720</v>
       </c>
@@ -11961,7 +12105,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1721</v>
       </c>
@@ -11969,7 +12113,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1722</v>
       </c>
@@ -11977,7 +12121,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1723</v>
       </c>
@@ -11985,7 +12129,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1724</v>
       </c>
@@ -11993,7 +12137,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1725</v>
       </c>
@@ -12001,7 +12145,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1726</v>
       </c>
@@ -12009,7 +12153,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>1727</v>
       </c>
@@ -12017,7 +12161,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1728</v>
       </c>
@@ -12025,7 +12169,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>1729</v>
       </c>
@@ -12033,7 +12177,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1730</v>
       </c>
@@ -12041,7 +12185,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1731</v>
       </c>
@@ -15762,6 +15906,9 @@
       <c r="B1051" t="s">
         <v>1058</v>
       </c>
+      <c r="D1051">
+        <v>53</v>
+      </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
@@ -15770,6 +15917,9 @@
       <c r="B1052" t="s">
         <v>1059</v>
       </c>
+      <c r="D1052">
+        <v>54</v>
+      </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
@@ -15778,6 +15928,9 @@
       <c r="B1053" t="s">
         <v>1060</v>
       </c>
+      <c r="D1053">
+        <v>55</v>
+      </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
@@ -15803,7 +15956,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
         <v>2196</v>
       </c>
@@ -15811,7 +15964,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1058" s="1" t="s">
         <v>2197</v>
       </c>
@@ -15819,7 +15972,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" s="1" t="s">
         <v>2198</v>
       </c>
@@ -15827,39 +15980,51 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
         <v>2199</v>
       </c>
       <c r="B1060" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1060">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
         <v>2200</v>
       </c>
       <c r="B1061" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1061">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1062" s="1" t="s">
         <v>2201</v>
       </c>
       <c r="B1062" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1062">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" s="1" t="s">
         <v>2202</v>
       </c>
       <c r="B1063" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1063">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
         <v>2203</v>
       </c>
@@ -15867,7 +16032,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
         <v>2204</v>
       </c>
@@ -15875,7 +16040,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
         <v>2205</v>
       </c>
@@ -15883,7 +16048,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
         <v>2206</v>
       </c>
@@ -15891,7 +16056,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
         <v>2207</v>
       </c>
@@ -15899,7 +16064,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
         <v>2208</v>
       </c>
@@ -15907,7 +16072,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
         <v>2209</v>
       </c>
@@ -15915,7 +16080,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
         <v>2210</v>
       </c>
@@ -15923,7 +16088,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
         <v>2211</v>
       </c>
